--- a/hrb_ratings/csv_file_fields/dailyreport_schema_mapping.xlsx
+++ b/hrb_ratings/csv_file_fields/dailyreport_schema_mapping.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dev2022\projects\hrb_ratings\hrb_ratings\csv_file_fields\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{1E8D63A5-6958-4C18-9817-67C70C4D29DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34C737F-AC92-46E0-9B35-B0FAE82560C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1575" windowWidth="21600" windowHeight="11085"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1156,7 +1156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1510,11 +1510,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,7 +2446,7 @@
       <c r="A109" t="s">
         <v>99</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>264</v>
       </c>
     </row>
